--- a/spacyStatistieken.xlsx
+++ b/spacyStatistieken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f995e92aee524b90/Documenten/Studie/Redacteur-editor/4 Scriptie/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924AC32F-64DC-4FEA-BDEF-30133B21E98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB85279A-0202-44CF-8D99-2F1FEE99282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canoniek" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>z_mean</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>adps</t>
+  </si>
+  <si>
+    <t>prons</t>
   </si>
   <si>
     <t>Arion_Dubbelspel</t>
@@ -450,6 +453,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,16 +744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,10 +823,13 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>16.189138070791682</v>
@@ -890,10 +900,13 @@
       <c r="X2">
         <v>0.10184438161651729</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>0.13584863302488409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>11.238076773943391</v>
@@ -964,10 +977,13 @@
       <c r="X3">
         <v>0.11631653962942309</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>0.1099027080622173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>11.72972972972973</v>
@@ -1038,10 +1054,13 @@
       <c r="X4">
         <v>0.106106145693269</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>0.12671043265047849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>19.10955056179775</v>
@@ -1112,10 +1131,13 @@
       <c r="X5">
         <v>0.1143620899149453</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>0.13783718104495751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>13.975948345439869</v>
@@ -1186,10 +1208,13 @@
       <c r="X6">
         <v>0.11564182585136661</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>0.1402654412016873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>13.772090363168431</v>
@@ -1260,10 +1285,13 @@
       <c r="X7">
         <v>8.5952242448319408E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>0.13856216569004409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>14.928860613071141</v>
@@ -1334,10 +1362,13 @@
       <c r="X8">
         <v>9.3394921802603253E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>0.1053989706741941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>18.60332225913621</v>
@@ -1408,10 +1439,13 @@
       <c r="X9">
         <v>0.11018018018018021</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>0.12666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>17.94212218649518</v>
@@ -1482,10 +1516,13 @@
       <c r="X10">
         <v>0.10732986566399499</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>0.12537448223760189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>25.371905002526528</v>
@@ -1556,10 +1593,13 @@
       <c r="X11">
         <v>0.12969521044992741</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>0.11715529753265599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>18.54869251577998</v>
@@ -1630,10 +1670,13 @@
       <c r="X12">
         <v>0.12861318609938291</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>9.4998376096135109E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>18.873119500425769</v>
@@ -1704,10 +1747,13 @@
       <c r="X13">
         <v>0.1033332019497326</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>0.1378082587731399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>12.65717299578059</v>
@@ -1778,10 +1824,13 @@
       <c r="X14">
         <v>9.270965586368192E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>0.12847310390912131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>13.10950259836674</v>
@@ -1852,10 +1901,13 @@
       <c r="X15">
         <v>9.9968543567159479E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>0.1047289504036909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>13.87221547185095</v>
@@ -1926,10 +1978,13 @@
       <c r="X16">
         <v>8.9818423062556801E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>0.11404168966343881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>13.41949334478317</v>
@@ -2000,10 +2055,13 @@
       <c r="X17">
         <v>0.115434550175653</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>0.1339735756835192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>15.041982105987611</v>
@@ -2074,10 +2132,13 @@
       <c r="X18">
         <v>0.1052802540874147</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>0.1111632439455733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>15.116287339971549</v>
@@ -2148,10 +2209,13 @@
       <c r="X19">
         <v>9.6952778624879776E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>0.1475286776607474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>10.66406890894176</v>
@@ -2222,10 +2286,13 @@
       <c r="X20">
         <v>8.9176310415248469E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>0.17311095983662361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>17.577336197636949</v>
@@ -2296,10 +2363,13 @@
       <c r="X21">
         <v>9.4686329588014984E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>0.13058871722846441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>11.0040739580069</v>
@@ -2370,10 +2440,13 @@
       <c r="X22">
         <v>0.1034202926223835</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>0.11301525168866509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>14.076344323965481</v>
@@ -2443,6 +2516,9 @@
       </c>
       <c r="X23">
         <v>0.1175096351829365</v>
+      </c>
+      <c r="Y23">
+        <v>0.1256401457156433</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2528,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2528,10 +2607,13 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>15.27799859714753</v>
@@ -2602,10 +2684,13 @@
       <c r="X2">
         <v>0.1144226139984869</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>0.1027151776366568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>14.40477426050856</v>
@@ -2676,10 +2761,13 @@
       <c r="X3">
         <v>0.1114904934766201</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>0.1301441253639076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>13.21857040229885</v>
@@ -2750,10 +2838,13 @@
       <c r="X4">
         <v>9.7674797189136395E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>0.1161244811026399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>20.3856409001957</v>
@@ -2824,10 +2915,13 @@
       <c r="X5">
         <v>0.1274745284544567</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>0.12760031386454709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>13.8508064516129</v>
@@ -2898,10 +2992,13 @@
       <c r="X6">
         <v>0.1204163113419645</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>0.1085161640437243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>12.47842489978779</v>
@@ -2972,10 +3069,13 @@
       <c r="X7">
         <v>0.1096112514611063</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>0.1247690509407639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>11.93799951562122</v>
@@ -3046,10 +3146,13 @@
       <c r="X8">
         <v>8.3181542197935637E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>0.14683262497470151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>14.62329122685586</v>
@@ -3120,10 +3223,13 @@
       <c r="X9">
         <v>0.10558580692408551</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>0.13456018709913661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>16.849845330657971</v>
@@ -3194,10 +3300,13 @@
       <c r="X10">
         <v>0.1109629049293156</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>0.12813939535183541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>13.95995145631068</v>
@@ -3268,10 +3377,13 @@
       <c r="X11">
         <v>0.12015570934256049</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>0.1329584775086505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>10.2151248164464</v>
@@ -3342,10 +3454,13 @@
       <c r="X12">
         <v>9.566043144843403E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>0.13217587615566551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>9.8311652366454467</v>
@@ -3416,10 +3531,13 @@
       <c r="X13">
         <v>9.0984412301643031E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>0.16208397696952681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>11.70697263901147</v>
@@ -3490,10 +3608,13 @@
       <c r="X14">
         <v>0.1015946153498667</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>9.6294288596768612E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>15.566308243727599</v>
@@ -3564,10 +3685,13 @@
       <c r="X15">
         <v>0.11333026890370031</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>9.5656170995173526E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>13.285829145728639</v>
@@ -3638,10 +3762,13 @@
       <c r="X16">
         <v>0.10232010150444081</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>0.13154794272249409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>16.22361359570662</v>
@@ -3712,10 +3839,13 @@
       <c r="X17">
         <v>0.10546014971378249</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>0.1324306472919419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>14.781671159029649</v>
@@ -3786,10 +3916,13 @@
       <c r="X18">
         <v>9.2887036539611292E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>0.1462624232078954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>11.567994505494511</v>
@@ -3860,10 +3993,13 @@
       <c r="X19">
         <v>9.7686502291765454E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>0.13483878615457559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>19.250814332247561</v>
@@ -3934,10 +4070,13 @@
       <c r="X20">
         <v>0.10340533476823741</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>0.12741947882235369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>12.248085758039821</v>
@@ -4008,10 +4147,13 @@
       <c r="X21">
         <v>9.174426385691116E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>0.1121709444362531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>15.358074011774599</v>
@@ -4082,10 +4224,13 @@
       <c r="X22">
         <v>0.1067520865491005</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>0.120903738713511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>16.215477996965099</v>
@@ -4156,10 +4301,13 @@
       <c r="X23">
         <v>0.10068116077260431</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23">
+        <v>0.1337127927591677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>11.58124923752592</v>
@@ -4230,10 +4378,13 @@
       <c r="X24">
         <v>8.5078795132655094E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24">
+        <v>0.14788917236238411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>12.393139841688649</v>
@@ -4304,10 +4455,13 @@
       <c r="X25">
         <v>9.0425230734386505E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <v>0.13245286223883129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>16.696280991735541</v>
@@ -4378,10 +4532,13 @@
       <c r="X26">
         <v>0.1021013597033375</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>0.14029666254635351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>16.229076790336499</v>
@@ -4452,10 +4609,13 @@
       <c r="X27">
         <v>9.7105426219350269E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <v>0.13062760024785339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>15.925266114725011</v>
@@ -4526,10 +4686,13 @@
       <c r="X28">
         <v>0.1188493811135321</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>0.1132817208288906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>11.94612794612795</v>
@@ -4600,10 +4763,13 @@
       <c r="X29">
         <v>9.2529939944510128E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>0.1526322567050257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>10.1272365805169</v>
@@ -4674,10 +4840,13 @@
       <c r="X30">
         <v>0.1049122462986567</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <v>0.1504069026375135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>17.82965107420387</v>
@@ -4748,10 +4917,13 @@
       <c r="X31">
         <v>0.1070150719439819</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31">
+        <v>0.1564151829554673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>20.0568776371308</v>
@@ -4822,10 +4994,13 @@
       <c r="X32">
         <v>0.1117943548387097</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32">
+        <v>0.14234711021505381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>13.71612903225807</v>
@@ -4896,10 +5071,13 @@
       <c r="X33">
         <v>0.1018445463269005</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33">
+        <v>0.10210043714681739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>16.51251814223512</v>
@@ -4970,10 +5148,13 @@
       <c r="X34">
         <v>0.1042315965058601</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <v>0.13397129186602871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>11.994278746951791</v>
@@ -5044,10 +5225,13 @@
       <c r="X35">
         <v>0.10246836431807529</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35">
+        <v>0.13772847992501169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>13.276119402985071</v>
@@ -5118,10 +5302,13 @@
       <c r="X36">
         <v>0.10260115606936419</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36">
+        <v>0.1126147568854131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>13.14187010594196</v>
@@ -5192,10 +5379,13 @@
       <c r="X37">
         <v>0.10821222202766589</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37">
+        <v>0.1156715111188934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>16.831578947368421</v>
@@ -5266,10 +5456,13 @@
       <c r="X38">
         <v>0.1189544968946349</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38">
+        <v>0.11968783384938531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>15.241336760925449</v>
@@ -5340,10 +5533,13 @@
       <c r="X39">
         <v>0.1174390408190758</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39">
+        <v>0.1019264448336252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>16.11896348645465</v>
@@ -5414,10 +5610,13 @@
       <c r="X40">
         <v>0.1248270337193212</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40">
+        <v>0.12045735926006849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>14.720723080953629</v>
@@ -5488,10 +5687,13 @@
       <c r="X41">
         <v>0.1003341509366891</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41">
+        <v>0.13355373075966009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>16.258241758241759</v>
@@ -5562,10 +5764,13 @@
       <c r="X42">
         <v>9.9718626899268428E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42">
+        <v>0.1500281373100732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>14.367032967032969</v>
@@ -5636,10 +5841,13 @@
       <c r="X43">
         <v>9.9297791457312046E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43">
+        <v>0.13396997523415441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44">
         <v>18.585360360360362</v>
@@ -5710,10 +5918,13 @@
       <c r="X44">
         <v>0.11623151934570621</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44">
+        <v>9.7805308877973243E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>16.509637188208622</v>
@@ -5784,10 +5995,13 @@
       <c r="X45">
         <v>0.1116498224528817</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45">
+        <v>0.14541791860147499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>23.108091908091911</v>
@@ -5858,10 +6072,13 @@
       <c r="X46">
         <v>0.12347235777273</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46">
+        <v>0.123040515447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>13.66816431322208</v>
@@ -5932,10 +6149,13 @@
       <c r="X47">
         <v>0.1028937776162961</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47">
+        <v>0.1165129335099214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>23.639412997903559</v>
@@ -6006,10 +6226,13 @@
       <c r="X48">
         <v>0.1187882009035344</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y48">
+        <v>0.108424129683763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49">
         <v>23.741785852338619</v>
@@ -6080,10 +6303,13 @@
       <c r="X49">
         <v>0.1154682559911495</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y49">
+        <v>0.10274570627504789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>12.83077709611452</v>
@@ -6154,10 +6380,13 @@
       <c r="X50">
         <v>9.0222125002485734E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y50">
+        <v>0.15810249169765539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <v>9.9975278121137201</v>
@@ -6228,10 +6457,13 @@
       <c r="X51">
         <v>8.3220150635880979E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y51">
+        <v>0.1665637733053463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>12.54818563583504</v>
@@ -6302,10 +6534,13 @@
       <c r="X52">
         <v>0.1062640204120075</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y52">
+        <v>0.13153072931828691</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>13.28893083456923</v>
@@ -6376,10 +6611,13 @@
       <c r="X53">
         <v>0.1054663029200768</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y53">
+        <v>0.13777912498736991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>16.728944060339408</v>
@@ -6450,10 +6688,13 @@
       <c r="X54">
         <v>0.12755212195740129</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y54">
+        <v>8.3629809723173965E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55">
         <v>11.7018222666001</v>
@@ -6524,10 +6765,13 @@
       <c r="X55">
         <v>0.10917691176783929</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y55">
+        <v>0.1266273197963054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56">
         <v>12.795926680244399</v>
@@ -6598,10 +6842,13 @@
       <c r="X56">
         <v>0.1162827691524561</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y56">
+        <v>0.1163145838635785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57">
         <v>16.63875878220141</v>
@@ -6672,10 +6919,13 @@
       <c r="X57">
         <v>0.1076698756236385</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y57">
+        <v>0.1031375166889186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>17.307053941908709</v>
@@ -6746,10 +6996,13 @@
       <c r="X58">
         <v>0.1191057095950383</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y58">
+        <v>0.13481621670923019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59">
         <v>10.80781265771677</v>
@@ -6820,10 +7073,13 @@
       <c r="X59">
         <v>0.1010778152796166</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y59">
+        <v>0.1533835567904227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60">
         <v>17.788656069364158</v>
@@ -6894,10 +7150,13 @@
       <c r="X60">
         <v>0.1038739889314602</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y60">
+        <v>0.1114962800786556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61">
         <v>14.811942446043171</v>
@@ -6968,10 +7227,13 @@
       <c r="X61">
         <v>0.1033278015547209</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y61">
+        <v>0.1544045574091866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>16.30700588570344</v>
@@ -7042,10 +7304,13 @@
       <c r="X62">
         <v>0.1006842392630197</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y62">
+        <v>0.1135558369442734</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>12.42798585436425</v>
@@ -7116,10 +7381,13 @@
       <c r="X63">
         <v>0.10080421698392859</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y63">
+        <v>0.13587271719658209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>19.181453085067542</v>
@@ -7190,10 +7458,13 @@
       <c r="X64">
         <v>0.11682260763730409</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y64">
+        <v>0.1025787311729804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>14.925289105295191</v>
@@ -7264,10 +7535,13 @@
       <c r="X65">
         <v>0.1201400124138913</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y65">
+        <v>0.1358100064104521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66">
         <v>15.52939356435644</v>
@@ -7338,10 +7612,13 @@
       <c r="X66">
         <v>0.11383315873920941</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y66">
+        <v>0.1222070465304391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67">
         <v>11.829933983643709</v>
@@ -7412,10 +7689,13 @@
       <c r="X67">
         <v>7.3631915194111441E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y67">
+        <v>0.1413653016972809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68">
         <v>10.99372800979042</v>
@@ -7486,10 +7766,13 @@
       <c r="X68">
         <v>9.2017476940148418E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y68">
+        <v>0.13204799223247099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69">
         <v>15.17861688587187</v>
@@ -7560,10 +7843,13 @@
       <c r="X69">
         <v>0.1103132556808742</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y69">
+        <v>0.12914182341756961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70">
         <v>14.456476250261559</v>
@@ -7634,10 +7920,13 @@
       <c r="X70">
         <v>9.6462697139222578E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y70">
+        <v>0.1116411524061466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71">
         <v>11.82252967802545</v>
@@ -7708,10 +7997,13 @@
       <c r="X71">
         <v>9.0619274988099185E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y71">
+        <v>0.1236602570575422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72">
         <v>13.03564177757726</v>
@@ -7782,10 +8074,13 @@
       <c r="X72">
         <v>9.3570786982657361E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y72">
+        <v>0.128670628066054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73">
         <v>11.52289129454217</v>
@@ -7856,10 +8151,13 @@
       <c r="X73">
         <v>0.10294275745462721</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y73">
+        <v>0.13856663962704871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B74">
         <v>14.74183634268152</v>
@@ -7929,6 +8227,9 @@
       </c>
       <c r="X74">
         <v>0.112774321193346</v>
+      </c>
+      <c r="Y74">
+        <v>9.6425689219795385E-2</v>
       </c>
     </row>
   </sheetData>
